--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2097108.851868362</v>
+        <v>-2099106.524881207</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>247.9452042555553</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>319.3695180489564</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.988089240356</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>184.3889888346162</v>
       </c>
       <c r="X4" t="n">
-        <v>56.99008250053549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>120.1369325735003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>221.8535419978549</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>128.4970238253391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.65592056208464</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>352.9210836684395</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>57.27851250617071</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.0995770694584</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.118589139012</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>10.18222035994239</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.08685956034218</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>136.4483017664649</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>148.4782663459313</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.78559640792017</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898687</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224533</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857084</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522963</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415142</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>745.5009715374997</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>376.538454597088</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.379069117473</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>735.4165521770612</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,37 +4656,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C7" t="n">
-        <v>183.7379553813131</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>96.01966925681359</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.67413830922</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.817756940316</v>
+        <v>1207.668958723993</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>838.7064417835813</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>838.7064417835813</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>452.9181891853371</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.817756940316</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,40 +4884,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C10" t="n">
-        <v>76.51876217462311</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>76.51876217462311</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1396.776281528597</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1196.85627144415</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>973.0708562336554</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>683.9422174472136</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>683.9422174472136</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>394.5250474102529</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861.4909633328887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049818</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1288.711189402806</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1034.026701196919</v>
       </c>
       <c r="W16" t="n">
-        <v>1275.130855347408</v>
+        <v>744.6095311599582</v>
       </c>
       <c r="X16" t="n">
-        <v>1263.932007306658</v>
+        <v>744.6095311599582</v>
       </c>
       <c r="Y16" t="n">
-        <v>1043.139428163128</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,16 +5531,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>638.3691419079769</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.6898113736382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>703.7536284457314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>553.6369890333956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.130855347408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1054.338276203878</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5744,7 +5744,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765184</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395578</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X22" t="n">
-        <v>413.0432218861031</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.0432218861031</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6066,13 +6066,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E25" t="n">
         <v>398.9545963083206</v>
@@ -6136,7 +6136,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6184,13 +6184,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6601,7 +6601,7 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
@@ -6610,7 +6610,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>104.8749102765755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208072</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>35.31352357172661</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.672733498332815</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.2498494156976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>168.7195728885017</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.845763264780786</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>276.055132038635</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.622795828695</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>9.985660880104263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>137.759086052646</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>142.924058981117</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1350885.617004505</v>
+        <v>1350885.617004506</v>
       </c>
     </row>
     <row r="6">
@@ -26314,34 +26314,34 @@
         <v>36783.84869564043</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
         <v>39102.9059737709</v>
       </c>
       <c r="F2" t="n">
+        <v>39102.90597377089</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39102.90597377089</v>
+      </c>
+      <c r="H2" t="n">
         <v>39102.90597377087</v>
       </c>
-      <c r="G2" t="n">
-        <v>39102.90597377087</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39102.90597377088</v>
-      </c>
       <c r="I2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321425</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.0884932142</v>
@@ -26350,10 +26350,10 @@
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116909.4528448266</v>
+        <v>116909.4528448267</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>44593.39482819119</v>
@@ -26454,10 +26454,10 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819117</v>
       </c>
     </row>
     <row r="5">
@@ -26488,13 +26488,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752952.56142714</v>
+        <v>-753165.9734170189</v>
       </c>
       <c r="C6" t="n">
         <v>-207439.8573567197</v>
@@ -26528,22 +26528,22 @@
         <v>-207439.8573567197</v>
       </c>
       <c r="E6" t="n">
-        <v>-600219.0640387126</v>
+        <v>-600316.5231646847</v>
       </c>
       <c r="F6" t="n">
-        <v>-75059.0275618165</v>
+        <v>-75156.48668778861</v>
       </c>
       <c r="G6" t="n">
-        <v>-75059.0275618165</v>
+        <v>-75156.48668778864</v>
       </c>
       <c r="H6" t="n">
-        <v>-75059.0275618165</v>
+        <v>-75156.48668778861</v>
       </c>
       <c r="I6" t="n">
         <v>-155761.9242587149</v>
       </c>
       <c r="J6" t="n">
-        <v>-277679.6313475953</v>
+        <v>-277679.6313475954</v>
       </c>
       <c r="K6" t="n">
         <v>-101256.4121550023</v>
@@ -26561,7 +26561,7 @@
         <v>-101256.4121550024</v>
       </c>
       <c r="P6" t="n">
-        <v>-101256.4121550023</v>
+        <v>-101256.4121550024</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>134.7886374079253</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>323.0795249718021</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>102.1340095019748</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>234.5461090471827</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>147.8775586806141</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>20.11844919287324</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>104.7780420844845</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3518081025681</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>349.5975332355407</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>124.0839400958531</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>55.0459618805605</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32792,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>354.1326152325997</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523318</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
         <v>304.3692416502435</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
